--- a/Components/Components.xlsx
+++ b/Components/Components.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="23715" windowHeight="9495" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="420" windowWidth="20730" windowHeight="9495" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigDetails" sheetId="16" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="77">
   <si>
     <t>ActionCode</t>
   </si>
@@ -1530,10 +1530,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1607,6 +1607,41 @@
         <v>com.konylabs.DigiBank</v>
       </c>
     </row>
+    <row r="3" spans="1:9" s="2" customFormat="1">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f>ConfigDetails!B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>ConfigDetails!B3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>ConfigDetails!B3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>ConfigDetails!B3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>ConfigDetails!B3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>ConfigDetails!B3</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Components.xlsx
+++ b/Components/Components.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="78">
   <si>
     <t>ActionCode</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Expenses this month  ₹  40,343.26|=|value</t>
+  </si>
+  <si>
+    <t>Close The Application2</t>
   </si>
 </sst>
 </file>
@@ -1530,10 +1533,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1642,6 +1645,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Components.xlsx
+++ b/Components/Components.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="78">
   <si>
     <t>ActionCode</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Expenses this month  ₹  40,343.26|=|value</t>
+  </si>
+  <si>
+    <t>Close The Application1</t>
   </si>
 </sst>
 </file>
@@ -1530,10 +1533,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1642,6 +1645,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>ConfigDetails!B4</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Components.xlsx
+++ b/Components/Components.xlsx
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1625,8 +1625,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f>ConfigDetails!B3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f>ConfigDetails!B3</f>

--- a/Components/Components.xlsx
+++ b/Components/Components.xlsx
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1629,8 +1629,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f>ConfigDetails!B3</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <f>ConfigDetails!B3</f>
